--- a/RESULTS/result_with_prep.xlsx
+++ b/RESULTS/result_with_prep.xlsx
@@ -60,154 +60,154 @@
     <t>Nbr_sts_used</t>
   </si>
   <si>
-    <t>75FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_10</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_10</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_10</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_10</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_10</t>
+    <t>158FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_10</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_10</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_10</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_10</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_10</t>
   </si>
 </sst>
 </file>
@@ -605,34 +605,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>1420.0</v>
+        <v>28759.034004703353</v>
       </c>
       <c r="E2">
-        <v>1420.0</v>
+        <v>28759.034004703353</v>
       </c>
       <c r="F2">
         <v>0.0</v>
       </c>
       <c r="G2">
-        <v>1400</v>
+        <v>12808</v>
       </c>
       <c r="H2">
-        <v>0.399</v>
+        <v>1.6028</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -640,34 +640,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>32720.0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>32720.0</v>
       </c>
       <c r="F3">
         <v>0.0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>205776</v>
       </c>
       <c r="H3">
-        <v>0.0469</v>
+        <v>24.2848</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -675,25 +675,25 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>4440.0</v>
+        <v>27979.9998595201</v>
       </c>
       <c r="E4">
-        <v>4440.0</v>
+        <v>27979.9998595201</v>
       </c>
       <c r="F4">
         <v>0.0</v>
       </c>
       <c r="G4">
-        <v>3616</v>
+        <v>20933</v>
       </c>
       <c r="H4">
-        <v>0.8383</v>
+        <v>2.5786</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>3.0</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -710,34 +710,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>5459.999999453896</v>
+        <v>35640.0</v>
       </c>
       <c r="E5">
-        <v>5459.999999453896</v>
+        <v>35640.0</v>
       </c>
       <c r="F5">
         <v>0.0</v>
       </c>
       <c r="G5">
-        <v>6233</v>
+        <v>57700</v>
       </c>
       <c r="H5">
-        <v>0.9355</v>
+        <v>6.4292</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -745,34 +745,34 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>6180.0</v>
+        <v>22640.0</v>
       </c>
       <c r="E6">
-        <v>6180.0</v>
+        <v>22640.0</v>
       </c>
       <c r="F6">
         <v>0.0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>30162</v>
       </c>
       <c r="H6">
-        <v>0.2057</v>
+        <v>3.4735</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -780,34 +780,34 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>340.0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>340.0</v>
       </c>
       <c r="F7">
         <v>0.0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>28745</v>
       </c>
       <c r="H7">
-        <v>0.2131</v>
+        <v>3.5399</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -815,34 +815,34 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>82240.0</v>
+        <v>21540.0</v>
       </c>
       <c r="E8">
-        <v>82240.0</v>
+        <v>21539.999999996602</v>
       </c>
       <c r="F8">
         <v>0.0</v>
       </c>
       <c r="G8">
-        <v>92268</v>
+        <v>6706</v>
       </c>
       <c r="H8">
-        <v>19.7327</v>
+        <v>0.8411</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -850,31 +850,31 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>51440.0</v>
+        <v>38260.0</v>
       </c>
       <c r="E9">
-        <v>51440.0</v>
+        <v>38260.0</v>
       </c>
       <c r="F9">
         <v>0.0</v>
       </c>
       <c r="G9">
-        <v>353133</v>
+        <v>11952</v>
       </c>
       <c r="H9">
-        <v>26.9033</v>
+        <v>1.9108</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -885,34 +885,34 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>5880.0</v>
+        <v>56480.0</v>
       </c>
       <c r="E10">
-        <v>5880.0</v>
+        <v>56480.0</v>
       </c>
       <c r="F10">
         <v>0.0</v>
       </c>
       <c r="G10">
-        <v>19120</v>
+        <v>8296</v>
       </c>
       <c r="H10">
-        <v>2.4548</v>
+        <v>0.999</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -920,31 +920,31 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>3220.0</v>
+        <v>2640.0</v>
       </c>
       <c r="E11">
-        <v>3220.0</v>
+        <v>2640.0</v>
       </c>
       <c r="F11">
         <v>0.0</v>
       </c>
       <c r="G11">
-        <v>9031</v>
+        <v>36998</v>
       </c>
       <c r="H11">
-        <v>2.0892</v>
+        <v>3.8351</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -955,34 +955,34 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>1520.0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>1520.0</v>
       </c>
       <c r="F12">
         <v>0.0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>35647</v>
       </c>
       <c r="H12">
-        <v>0.0566</v>
+        <v>3.3755</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -990,34 +990,34 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>34100.0</v>
+        <v>8160.0</v>
       </c>
       <c r="E13">
-        <v>34100.0</v>
+        <v>8160.0</v>
       </c>
       <c r="F13">
         <v>0.0</v>
       </c>
       <c r="G13">
-        <v>12073</v>
+        <v>10208</v>
       </c>
       <c r="H13">
-        <v>2.1069</v>
+        <v>0.9355</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1025,34 +1025,34 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>9060.0</v>
+        <v>3680.0</v>
       </c>
       <c r="E14">
-        <v>9060.0</v>
+        <v>3680.0</v>
       </c>
       <c r="F14">
         <v>0.0</v>
       </c>
       <c r="G14">
-        <v>862</v>
+        <v>20897</v>
       </c>
       <c r="H14">
-        <v>0.4847</v>
+        <v>1.9997</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1060,34 +1060,34 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>1380.0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>1380.0</v>
       </c>
       <c r="F15">
         <v>0.0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>26519</v>
       </c>
       <c r="H15">
-        <v>0.1232</v>
+        <v>1.7759</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1095,25 +1095,25 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>2600.0</v>
+        <v>18740.0</v>
       </c>
       <c r="E16">
-        <v>2600.0</v>
+        <v>18740.0</v>
       </c>
       <c r="F16">
         <v>0.0</v>
       </c>
       <c r="G16">
-        <v>3612</v>
+        <v>6244</v>
       </c>
       <c r="H16">
-        <v>0.5634</v>
+        <v>0.7236</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1130,34 +1130,34 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>12420.0</v>
+        <v>860.0</v>
       </c>
       <c r="E17">
-        <v>12420.0</v>
+        <v>860.0</v>
       </c>
       <c r="F17">
         <v>0.0</v>
       </c>
       <c r="G17">
-        <v>2805</v>
+        <v>4322</v>
       </c>
       <c r="H17">
-        <v>0.8735</v>
+        <v>0.4698</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1165,25 +1165,25 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D18">
-        <v>7380.0</v>
+        <v>4019.9999995978997</v>
       </c>
       <c r="E18">
-        <v>7380.0</v>
+        <v>4019.9999995978997</v>
       </c>
       <c r="F18">
         <v>0.0</v>
       </c>
       <c r="G18">
-        <v>3351</v>
+        <v>15835</v>
       </c>
       <c r="H18">
-        <v>0.6693</v>
+        <v>1.5127</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1200,34 +1200,34 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D19">
-        <v>2540.0</v>
+        <v>3380.0</v>
       </c>
       <c r="E19">
-        <v>2540.0</v>
+        <v>3380.0</v>
       </c>
       <c r="F19">
         <v>0.0</v>
       </c>
       <c r="G19">
-        <v>1648</v>
+        <v>24931</v>
       </c>
       <c r="H19">
-        <v>0.4872</v>
+        <v>2.4202</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1235,34 +1235,34 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>1079.9999998918256</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>1079.9999998918256</v>
       </c>
       <c r="F20">
         <v>0.0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>16611</v>
       </c>
       <c r="H20">
-        <v>0.0802</v>
+        <v>1.1989</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1270,34 +1270,34 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>5760.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21">
-        <v>5760.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21">
         <v>0.0</v>
       </c>
       <c r="G21">
-        <v>2225</v>
+        <v>5881</v>
       </c>
       <c r="H21">
-        <v>0.8359</v>
+        <v>0.5899</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1305,25 +1305,25 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D22">
-        <v>3359.9999996601628</v>
+        <v>1980.0</v>
       </c>
       <c r="E22">
-        <v>3359.9999996601628</v>
+        <v>1980.0</v>
       </c>
       <c r="F22">
         <v>0.0</v>
       </c>
       <c r="G22">
-        <v>10196</v>
+        <v>94311</v>
       </c>
       <c r="H22">
-        <v>0.8206</v>
+        <v>15.7908</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1340,34 +1340,34 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D23">
-        <v>7580.0</v>
+        <v>12479.997115384871</v>
       </c>
       <c r="E23">
-        <v>7580.0</v>
+        <v>12479.997115384871</v>
       </c>
       <c r="F23">
         <v>0.0</v>
       </c>
       <c r="G23">
-        <v>3549</v>
+        <v>113791</v>
       </c>
       <c r="H23">
-        <v>0.4091</v>
+        <v>20.1799</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1375,34 +1375,34 @@
         <v>33</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D24">
-        <v>27180.0</v>
+        <v>140.0</v>
       </c>
       <c r="E24">
-        <v>27180.0</v>
+        <v>140.0</v>
       </c>
       <c r="F24">
         <v>0.0</v>
       </c>
       <c r="G24">
-        <v>35395</v>
+        <v>24676</v>
       </c>
       <c r="H24">
-        <v>3.9405</v>
+        <v>4.3492</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1410,34 +1410,34 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D25">
-        <v>8780.0</v>
+        <v>5680.0</v>
       </c>
       <c r="E25">
-        <v>8780.0</v>
+        <v>5680.0</v>
       </c>
       <c r="F25">
         <v>0.0</v>
       </c>
       <c r="G25">
-        <v>12145</v>
+        <v>34580</v>
       </c>
       <c r="H25">
-        <v>1.4783</v>
+        <v>5.2603</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1445,34 +1445,34 @@
         <v>35</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D26">
-        <v>8159.999999183891</v>
+        <v>5800.0</v>
       </c>
       <c r="E26">
-        <v>8159.999999183891</v>
+        <v>5800.0</v>
       </c>
       <c r="F26">
         <v>0.0</v>
       </c>
       <c r="G26">
-        <v>15148</v>
+        <v>45446</v>
       </c>
       <c r="H26">
-        <v>1.9608</v>
+        <v>7.2685</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1480,25 +1480,25 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D27">
-        <v>3920.0</v>
+        <v>2560.0</v>
       </c>
       <c r="E27">
-        <v>3920.0</v>
+        <v>2560.0</v>
       </c>
       <c r="F27">
         <v>0.0</v>
       </c>
       <c r="G27">
-        <v>22853</v>
+        <v>87327</v>
       </c>
       <c r="H27">
-        <v>2.8442</v>
+        <v>14.483</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1515,34 +1515,34 @@
         <v>37</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D28">
-        <v>0.0</v>
+        <v>6820.0</v>
       </c>
       <c r="E28">
-        <v>0.0</v>
+        <v>6820.0</v>
       </c>
       <c r="F28">
         <v>0.0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>33996</v>
       </c>
       <c r="H28">
-        <v>0.0484</v>
+        <v>5.8128</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1550,34 +1550,34 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D29">
-        <v>27700.0</v>
+        <v>5580.0</v>
       </c>
       <c r="E29">
-        <v>27700.0</v>
+        <v>5580.0</v>
       </c>
       <c r="F29">
         <v>0.0</v>
       </c>
       <c r="G29">
-        <v>43720</v>
+        <v>112887</v>
       </c>
       <c r="H29">
-        <v>6.9396</v>
+        <v>19.1011</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1585,34 +1585,34 @@
         <v>39</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D30">
-        <v>6660.0</v>
+        <v>2260.0</v>
       </c>
       <c r="E30">
-        <v>6660.0</v>
+        <v>2260.0</v>
       </c>
       <c r="F30">
         <v>0.0</v>
       </c>
       <c r="G30">
-        <v>13382</v>
+        <v>55719</v>
       </c>
       <c r="H30">
-        <v>2.1441</v>
+        <v>7.1041</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1620,25 +1620,25 @@
         <v>40</v>
       </c>
       <c r="B31">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D31">
-        <v>19480.0</v>
+        <v>440.0</v>
       </c>
       <c r="E31">
-        <v>19480.0</v>
+        <v>440.0</v>
       </c>
       <c r="F31">
         <v>0.0</v>
       </c>
       <c r="G31">
-        <v>32600</v>
+        <v>58667</v>
       </c>
       <c r="H31">
-        <v>3.8745</v>
+        <v>8.7145</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1647,7 +1647,7 @@
         <v>3.0</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1655,34 +1655,34 @@
         <v>41</v>
       </c>
       <c r="B32">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D32">
-        <v>57839.988637043585</v>
+        <v>117440.0</v>
       </c>
       <c r="E32">
-        <v>57839.988637043585</v>
+        <v>117439.99999999085</v>
       </c>
       <c r="F32">
         <v>0.0</v>
       </c>
       <c r="G32">
-        <v>37786</v>
+        <v>36278</v>
       </c>
       <c r="H32">
-        <v>1.9459</v>
+        <v>4.8949</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>4.0000000920906755</v>
+        <v>7.0</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1690,31 +1690,31 @@
         <v>42</v>
       </c>
       <c r="B33">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D33">
-        <v>27360.0</v>
+        <v>133660.0</v>
       </c>
       <c r="E33">
-        <v>27360.0</v>
+        <v>133660.0</v>
       </c>
       <c r="F33">
         <v>0.0</v>
       </c>
       <c r="G33">
-        <v>5593</v>
+        <v>1076613</v>
       </c>
       <c r="H33">
-        <v>0.4092</v>
+        <v>92.8007</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1725,34 +1725,34 @@
         <v>43</v>
       </c>
       <c r="B34">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D34">
-        <v>7000.0</v>
+        <v>119020.0</v>
       </c>
       <c r="E34">
-        <v>7000.0</v>
+        <v>119019.99999999965</v>
       </c>
       <c r="F34">
         <v>0.0</v>
       </c>
       <c r="G34">
-        <v>262</v>
+        <v>32583</v>
       </c>
       <c r="H34">
-        <v>0.1501</v>
+        <v>6.0152</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1760,31 +1760,31 @@
         <v>44</v>
       </c>
       <c r="B35">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C35">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D35">
-        <v>10340.0</v>
+        <v>178400.0</v>
       </c>
       <c r="E35">
-        <v>10340.0</v>
+        <v>178400.0</v>
       </c>
       <c r="F35">
         <v>0.0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>75712</v>
       </c>
       <c r="H35">
-        <v>0.201</v>
+        <v>13.7038</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -1795,31 +1795,31 @@
         <v>45</v>
       </c>
       <c r="B36">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C36">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D36">
-        <v>4580.0</v>
+        <v>67660.0</v>
       </c>
       <c r="E36">
-        <v>4580.0</v>
+        <v>67660.0</v>
       </c>
       <c r="F36">
         <v>0.0</v>
       </c>
       <c r="G36">
-        <v>192</v>
+        <v>126909</v>
       </c>
       <c r="H36">
-        <v>0.187</v>
+        <v>20.4921</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1830,31 +1830,31 @@
         <v>46</v>
       </c>
       <c r="B37">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C37">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D37">
-        <v>8000.0</v>
+        <v>127660.0</v>
       </c>
       <c r="E37">
-        <v>8000.0</v>
+        <v>127659.99999999923</v>
       </c>
       <c r="F37">
         <v>0.0</v>
       </c>
       <c r="G37">
-        <v>751</v>
+        <v>249444</v>
       </c>
       <c r="H37">
-        <v>0.3229</v>
+        <v>31.248</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1865,34 +1865,34 @@
         <v>47</v>
       </c>
       <c r="B38">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D38">
-        <v>6340.0</v>
+        <v>108120.0</v>
       </c>
       <c r="E38">
-        <v>6340.0</v>
+        <v>108120.0</v>
       </c>
       <c r="F38">
         <v>0.0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>118217</v>
       </c>
       <c r="H38">
-        <v>0.0934</v>
+        <v>13.8549</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1900,34 +1900,34 @@
         <v>48</v>
       </c>
       <c r="B39">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C39">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D39">
-        <v>63680.0</v>
+        <v>190340.0</v>
       </c>
       <c r="E39">
-        <v>63680.0</v>
+        <v>190340.0</v>
       </c>
       <c r="F39">
         <v>0.0</v>
       </c>
       <c r="G39">
-        <v>19523</v>
+        <v>20799</v>
       </c>
       <c r="H39">
-        <v>1.2022</v>
+        <v>3.2017</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1935,31 +1935,31 @@
         <v>49</v>
       </c>
       <c r="B40">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C40">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D40">
-        <v>7060.0</v>
+        <v>139420.0</v>
       </c>
       <c r="E40">
-        <v>7060.0</v>
+        <v>139420.0</v>
       </c>
       <c r="F40">
         <v>0.0</v>
       </c>
       <c r="G40">
-        <v>1188</v>
+        <v>55537</v>
       </c>
       <c r="H40">
-        <v>0.2005</v>
+        <v>7.5533</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1970,31 +1970,31 @@
         <v>50</v>
       </c>
       <c r="B41">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C41">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D41">
-        <v>24480.0</v>
+        <v>91700.0</v>
       </c>
       <c r="E41">
-        <v>24480.0</v>
+        <v>91700.0</v>
       </c>
       <c r="F41">
         <v>0.0</v>
       </c>
       <c r="G41">
-        <v>2096</v>
+        <v>116292</v>
       </c>
       <c r="H41">
-        <v>0.3189</v>
+        <v>13.4409</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -2005,25 +2005,25 @@
         <v>51</v>
       </c>
       <c r="B42">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D42">
-        <v>37280.0</v>
+        <v>38540.0</v>
       </c>
       <c r="E42">
-        <v>37280.0</v>
+        <v>38540.0</v>
       </c>
       <c r="F42">
         <v>0.0</v>
       </c>
       <c r="G42">
-        <v>5438</v>
+        <v>35805</v>
       </c>
       <c r="H42">
-        <v>0.9445</v>
+        <v>3.7917</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>3.0</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2040,31 +2040,31 @@
         <v>52</v>
       </c>
       <c r="B43">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C43">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D43">
-        <v>49380.0</v>
+        <v>13320.0</v>
       </c>
       <c r="E43">
-        <v>49380.0</v>
+        <v>13320.0</v>
       </c>
       <c r="F43">
         <v>0.0</v>
       </c>
       <c r="G43">
-        <v>7382</v>
+        <v>41426</v>
       </c>
       <c r="H43">
-        <v>1.0841</v>
+        <v>5.0151</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -2075,34 +2075,34 @@
         <v>53</v>
       </c>
       <c r="B44">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C44">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D44">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="E44">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F44">
         <v>0.0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>39605</v>
       </c>
       <c r="H44">
-        <v>0.1582</v>
+        <v>7.4091</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2110,34 +2110,34 @@
         <v>54</v>
       </c>
       <c r="B45">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D45">
-        <v>12820.0</v>
+        <v>32760.0</v>
       </c>
       <c r="E45">
-        <v>12820.0</v>
+        <v>32760.0</v>
       </c>
       <c r="F45">
         <v>0.0</v>
       </c>
       <c r="G45">
-        <v>7702</v>
+        <v>137248</v>
       </c>
       <c r="H45">
-        <v>0.7338</v>
+        <v>21.0684</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2145,34 +2145,34 @@
         <v>55</v>
       </c>
       <c r="B46">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D46">
-        <v>3300.0</v>
+        <v>28980.0</v>
       </c>
       <c r="E46">
-        <v>3300.0</v>
+        <v>28980.0</v>
       </c>
       <c r="F46">
         <v>0.0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>440470</v>
       </c>
       <c r="H46">
-        <v>0.2342</v>
+        <v>57.6708</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2180,25 +2180,25 @@
         <v>56</v>
       </c>
       <c r="B47">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D47">
-        <v>39820.0</v>
+        <v>10760.0</v>
       </c>
       <c r="E47">
-        <v>39820.0</v>
+        <v>10760.0</v>
       </c>
       <c r="F47">
         <v>0.0</v>
       </c>
       <c r="G47">
-        <v>19335</v>
+        <v>49014</v>
       </c>
       <c r="H47">
-        <v>1.4824</v>
+        <v>6.1326</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>3.0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2215,34 +2215,34 @@
         <v>57</v>
       </c>
       <c r="B48">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D48">
-        <v>3020.0</v>
+        <v>25419.997000000054</v>
       </c>
       <c r="E48">
-        <v>3020.0</v>
+        <v>25419.997000000054</v>
       </c>
       <c r="F48">
         <v>0.0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>1124956</v>
       </c>
       <c r="H48">
-        <v>0.3717</v>
+        <v>112.3701</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2250,31 +2250,31 @@
         <v>58</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C49">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D49">
-        <v>12419.99999040603</v>
+        <v>31100.0</v>
       </c>
       <c r="E49">
-        <v>12419.99999040603</v>
+        <v>31100.0</v>
       </c>
       <c r="F49">
         <v>0.0</v>
       </c>
       <c r="G49">
-        <v>4994</v>
+        <v>24996</v>
       </c>
       <c r="H49">
-        <v>0.8277</v>
+        <v>3.0992</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -2285,34 +2285,34 @@
         <v>59</v>
       </c>
       <c r="B50">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D50">
-        <v>14700.0</v>
+        <v>15560.0</v>
       </c>
       <c r="E50">
-        <v>14700.0</v>
+        <v>15560.0</v>
       </c>
       <c r="F50">
         <v>0.0</v>
       </c>
       <c r="G50">
-        <v>4659</v>
+        <v>11968</v>
       </c>
       <c r="H50">
-        <v>0.9972</v>
+        <v>2.9696</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2320,25 +2320,25 @@
         <v>60</v>
       </c>
       <c r="B51">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D51">
-        <v>48159.997898934525</v>
+        <v>18060.0</v>
       </c>
       <c r="E51">
-        <v>48159.997898934525</v>
+        <v>18060.0</v>
       </c>
       <c r="F51">
         <v>0.0</v>
       </c>
       <c r="G51">
-        <v>2720</v>
+        <v>25982</v>
       </c>
       <c r="H51">
-        <v>1.0427</v>
+        <v>4.7593</v>
       </c>
       <c r="I51">
         <v>1</v>
